--- a/data/input/storage_units;source=pypsa_pl_v2.1.xlsx
+++ b/data/input/storage_units;source=pypsa_pl_v2.1.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Hydro PSH" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="# Attributes" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -995,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1020,7 +1019,8 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>&gt;Nie jest podane, czy moc odnosi się do pompowania czy do generacji</t>
+          <t>&gt;Nie jest podane, czy moc odnosi się do pompowania czy do generacji
+&gt; assume 2 year delay</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1085,7 +1085,8 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>&gt;Nie jest podane, czy moc odnosi się do pompowania czy do generacji</t>
+          <t>&gt;Nie jest podane, czy moc odnosi się do pompowania czy do generacji
+&gt; assume 2 year delay</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
@@ -1127,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1150,7 +1151,8 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>&gt;Nie jest podane, czy moc odnosi się do pompowania czy do generacji</t>
+          <t>&gt;Nie jest podane, czy moc odnosi się do pompowania czy do generacji
+&gt; assume 2 year delay</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -1160,121 +1162,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Attribute</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>p_nom</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MW</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Installed electrical generation capacity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>p_nom_store</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MW</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Charging capacity</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>charge_max</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MWh</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Electrical storage capacity</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>efficiency_round</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Round trip efficiency</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>inflow</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MW</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Exogeneous power inflow</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>